--- a/Street Fightercharacters_stats.xlsx
+++ b/Street Fightercharacters_stats.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Injae\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03AE8A43-9B22-408A-BBF9-CFEF2F64290B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66668976-D77B-4602-B158-921D4DFAAC64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{4EA9C110-8852-40E5-B4B9-34CC32EC19F2}"/>
+    <workbookView xWindow="6492" yWindow="1740" windowWidth="18000" windowHeight="12072" activeTab="3" xr2:uid="{4EA9C110-8852-40E5-B4B9-34CC32EC19F2}"/>
   </bookViews>
   <sheets>
     <sheet name="characters" sheetId="1" r:id="rId1"/>
     <sheet name="SVG" sheetId="2" r:id="rId2"/>
     <sheet name="Tierlist" sheetId="3" r:id="rId3"/>
+    <sheet name="Measures" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="322">
   <si>
     <t>Ryu</t>
   </si>
@@ -999,6 +1000,66 @@
   </si>
   <si>
     <t>&lt;svg id="a" xmlns="http://www.w3.org/2000/svg" height="150px" viewBox="0 0 348.73 160.1"&gt; &lt;path fill="#FFFFFF" d="M62.62,92.66l7.33,48.89h-23.41l-7.17-47.93h-11.78v47.93H4.18V21.96H51.64c1.59,0,1.91,.32,3.03,.96,.96,.8,13.69,13.54,14.65,14.81,.64,.96,.96,1.27,.96,3.03v41.56c0,1.59-.48,3.34-.96,3.82-2.07,2.39-5.1,4.78-6.69,6.53Zm-35.03-22.93h18.95v-25.8H27.59v25.8Z"&gt;&lt;/path&gt; &lt;path fill="#FFFFFF" d="M144.63,22.12V59.54c0,.48-.48,1.43-.96,2.87-.16,.48-11.15,24.84-20.38,44.75v34.4h-23.41v-34.4c-9.08-19.91-20.06-44.27-20.22-44.75-.8-1.43-.96-2.39-.96-2.87V22.12h23.41V59.54l9.55,22.13,9.55-22.13V22.12h23.41Z"&gt;&lt;/path&gt; &lt;path fill="#FFFFFF" d="M176.64,22.12V119.25h19.11V22.12h23.41V123.39c0,1.11-.48,1.91-.48,1.91l-15.13,15.29s-.8,.96-2.07,.96h-29.94c-1.43,0-2.87-1.27-2.87-1.27,0,0-13.38-13.69-14.49-14.81-.8-.64-.96-1.11-.96-2.71V22.12h23.41Z"&gt;&lt;/path&gt; &lt;/svg&gt;</t>
+  </si>
+  <si>
+    <t>SVGName = 
+// SUBSTITUTE(SUBSTITUTE(SELECTEDVALUE(characters[SVG_name]), "&lt;path", "&lt;path fill=""#FFFFFF"""), "viewBox=""0 0 348.73 160.1""&gt;", "height=""150px"" viewBox=""0 0 600 160.1""&gt;")
+VAR _Start = 
+"&lt;!DOCTYPE html&gt;
+&lt;html lang=""en""&gt;
+&lt;head&gt;
+&lt;meta charset=""UTF-8""&gt;
+&lt;title&gt;SVG Display&lt;/title&gt;
+&lt;style&gt;
+  svg {
+    /* Your SVG styling goes here */
+  }
+  path {
+    fill: #FFFFFF; /* Ensure all paths are white */
+  }
+&lt;/style&gt;
+&lt;/head&gt;
+&lt;body&gt;
+&lt;div id=""htmlContent""&gt;
+  &lt;div class=""htmlViewerEntry""&gt;
+    &lt;div&gt;"
+VAR _End =     "    &lt;/div&gt;
+  &lt;/div&gt;
+&lt;/div&gt;
+&lt;/body&gt;
+&lt;/html&gt;"
+RETURN
+_start &amp;  SUBSTITUTE(SELECTEDVALUE(characters[SVG_name]),  "viewBox=""0 0 348.73 160.1""&gt;", "height=""150px"" viewBox=""0 0 600 160.1""&gt;") &amp; _End</t>
+  </si>
+  <si>
+    <t>SVG Character = 
+// SUBSTITUTE(SUBSTITUTE(SELECTEDVALUE(characters[SVG_name]), "&lt;path", "&lt;path fill=""#FFFFFF"""), "viewBox=""0 0 348.73 160.1""&gt;", "height=""150px"" viewBox=""0 0 600 160.1""&gt;")
+VAR _Start = 
+"&lt;!DOCTYPE html&gt;
+&lt;html lang=""en""&gt;
+&lt;head&gt;
+&lt;meta charset=""UTF-8""&gt;
+&lt;title&gt;SVG Display&lt;/title&gt;
+&lt;style&gt;
+  svg {
+    /* Your SVG styling goes here */
+  }
+  path {
+    fill: #FFFFFF; /* Ensure all paths are white */
+  }
+&lt;/style&gt;
+&lt;/head&gt;
+&lt;body&gt;
+&lt;div id=""htmlContent""&gt;
+  &lt;div class=""htmlViewerEntry""&gt;
+    &lt;div&gt;"
+VAR _End =     "    &lt;/div&gt;
+  &lt;/div&gt;
+&lt;/div&gt;
+&lt;/body&gt;
+&lt;/html&gt;"
+RETURN
+_start &amp;  SELECTEDVALUE(SVG[SVG_code]) &amp; _End</t>
   </si>
 </sst>
 </file>
@@ -1097,7 +1158,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
@@ -1116,6 +1177,10 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1434,8 +1499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{106538E3-F2D4-4D3E-AEE1-58E0C1DE00E2}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3403,4 +3468,32 @@
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D1148B-B891-4AA7-A489-F80F18E80BE3}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="40.33203125" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="F1" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>